--- a/RETO_HACKMTY_34IronLag.xlsx
+++ b/RETO_HACKMTY_34IronLag.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Garcia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Garcia\Downloads\HackMTY_Banorte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E681BF5-EC90-4D60-B328-3E1546D0AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8800F-F44C-42BA-9671-55CCA32AED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A654E12-A209-4D30-977D-7823BECCC5E2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Registro de Resultados Hack MTY 2021</t>
   </si>
@@ -1198,6 +1198,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,7 +1223,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1221,31 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0682CF-8A52-4599-AA8F-48FCB2AC503F}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2430,791 +2430,796 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B4 B6" name="Rango1"/>
+    <protectedRange sqref="B4" name="Rango1_1"/>
+    <protectedRange sqref="B6" name="Rango1_2"/>
   </protectedRanges>
   <mergeCells count="4">
     <mergeCell ref="A1:H2"/>
@@ -3222,9 +3227,12 @@
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="A8:H80"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{B98040D7-4DA5-4877-B110-69CD5FA49939}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3570,7 +3578,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C6" sqref="C6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3581,178 +3589,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="G8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="G11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -3761,14 +3769,14 @@
       <c r="G14" s="6">
         <v>6</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -3777,14 +3785,14 @@
       <c r="G15" s="6">
         <v>7</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -3793,14 +3801,14 @@
       <c r="G16" s="6">
         <v>8</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -3809,9 +3817,9 @@
       <c r="G17" s="6">
         <v>9</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -3820,9 +3828,9 @@
       <c r="G18" s="6">
         <v>10</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -3831,9 +3839,9 @@
       <c r="G19" s="6">
         <v>11</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -3842,9 +3850,9 @@
       <c r="G20" s="6">
         <v>12</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -3853,9 +3861,9 @@
       <c r="G21" s="6">
         <v>13</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -3864,9 +3872,9 @@
       <c r="G22" s="6">
         <v>14</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -3875,9 +3883,9 @@
       <c r="G23" s="6">
         <v>15</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -3886,9 +3894,9 @@
       <c r="G24" s="6">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -3897,9 +3905,9 @@
       <c r="G25" s="6">
         <v>17</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -3908,9 +3916,9 @@
       <c r="G26" s="6">
         <v>18</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -3919,9 +3927,9 @@
       <c r="G27" s="6">
         <v>19</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -3930,20 +3938,22 @@
       <c r="G28" s="6">
         <v>20</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C4 C6 A9:D60 G9:J60" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="B9:E9"/>
@@ -3952,13 +3962,11 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{C7B06802-F6F0-4C26-B6E5-E22804DC63F0}"/>
@@ -3969,12 +3977,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4189,15 +4194,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FC7028-6DC9-417C-913F-62F1527A619C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB7878B-2AF9-428A-AD12-C062BCB0CB27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="10acc950-e060-4158-99a6-ab8def1cab2e"/>
+    <ds:schemaRef ds:uri="4acd28c5-ffac-4bbd-8aba-529c380f1a98"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4222,18 +4239,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB7878B-2AF9-428A-AD12-C062BCB0CB27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FC7028-6DC9-417C-913F-62F1527A619C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="10acc950-e060-4158-99a6-ab8def1cab2e"/>
-    <ds:schemaRef ds:uri="4acd28c5-ffac-4bbd-8aba-529c380f1a98"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RETO_HACKMTY_34IronLag.xlsx
+++ b/RETO_HACKMTY_34IronLag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Garcia\Downloads\HackMTY_Banorte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8800F-F44C-42BA-9671-55CCA32AED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF0A10E-D332-45DE-9C71-9BC2972CEEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A654E12-A209-4D30-977D-7823BECCC5E2}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{4A654E12-A209-4D30-977D-7823BECCC5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Registro de Resultados Hack MTY 2021</t>
   </si>
@@ -1008,11 +1008,20 @@
   <si>
     <t>Geografía, E. D. N. I. Y. (2021). Índice Nacional de Precios al Consumidor (INPC). INEGI. https://www.inegi.org.mx/temas/inpc/</t>
   </si>
+  <si>
+    <t>INPC 2021</t>
+  </si>
+  <si>
+    <t>INPC 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="General\ \%"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1100,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1178,12 +1187,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1220,13 +1345,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1235,18 +1366,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2421,7 +2558,7 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2469,7 +2606,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="14"/>
@@ -2483,738 +2620,738 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3283,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C57E4FB-3201-455B-80EE-F3C9BA670029}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3294,145 +3431,257 @@
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="25">
+        <f>((E2/F2)-1)*100</f>
+        <v>19.296296296296276</v>
+      </c>
+      <c r="E2" s="30">
         <v>0.3221</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F2" s="36">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="25">
+        <f t="shared" ref="B3:B16" si="0">((E3/F3)-1)*100</f>
+        <v>-178.54545454545456</v>
+      </c>
+      <c r="E3" s="26">
         <v>-8.6400000000000005E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F3" s="34">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="25">
+        <f t="shared" si="0"/>
+        <v>-347.5</v>
+      </c>
+      <c r="E4" s="26">
         <v>-0.29699999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F4" s="34">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="25">
+        <f t="shared" si="0"/>
+        <v>-118.6404255319149</v>
+      </c>
+      <c r="E5" s="26">
         <v>-8.7609999999999993E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F5" s="34">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="25">
+        <f t="shared" si="0"/>
+        <v>-264.18181818181819</v>
+      </c>
+      <c r="E6" s="26">
         <v>-0.18060000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F6" s="34">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="25">
+        <f t="shared" si="0"/>
+        <v>-87.102564102564102</v>
+      </c>
+      <c r="E7" s="26">
         <v>-0.10059999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F7" s="34">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="25">
+        <f t="shared" si="0"/>
+        <v>-129.05555555555557</v>
+      </c>
+      <c r="E8" s="26">
         <v>0.2092</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F8" s="34">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="25">
+        <f t="shared" si="0"/>
+        <v>-106.61052631578947</v>
+      </c>
+      <c r="E9" s="26">
         <v>-1.256E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F9" s="34">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="25">
+        <f t="shared" si="0"/>
+        <v>162.86666666666667</v>
+      </c>
+      <c r="E10" s="26">
         <v>0.78859999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F10" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="25">
+        <f t="shared" si="0"/>
+        <v>6481.9999999999991</v>
+      </c>
+      <c r="E11" s="26">
         <v>-0.65820000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F11" s="34">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="25">
+        <f t="shared" si="0"/>
+        <v>-115.90625000000001</v>
+      </c>
+      <c r="E12" s="26">
         <v>-5.0900000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F12" s="34">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="25">
+        <f t="shared" si="0"/>
+        <v>-101.45382978723406</v>
+      </c>
+      <c r="E13" s="26">
         <v>-6.8329999999999997E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F13" s="34">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="25">
+        <f t="shared" si="0"/>
+        <v>-141.44444444444443</v>
+      </c>
+      <c r="E14" s="26">
         <v>-0.1492</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F14" s="34">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="25">
+        <f t="shared" si="0"/>
+        <v>-119.22142857142856</v>
+      </c>
+      <c r="E15" s="26">
         <v>-2.691E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F15" s="34">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="25">
+        <f t="shared" si="0"/>
+        <v>-172.79166666666669</v>
+      </c>
+      <c r="E16" s="28">
         <v>-0.17469999999999999</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82F77B-0D81-4B95-9A4A-087ED99E9E2B}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3440,132 +3689,243 @@
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="25">
+        <f>((E2/F2)-1)*100</f>
+        <v>4.508196721311486</v>
+      </c>
+      <c r="E2" s="30">
         <v>3.8250000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F2" s="31">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="25">
+        <f t="shared" ref="B3:B16" si="0">((E3/F3)-1)*100</f>
+        <v>5.6300268096514783</v>
+      </c>
+      <c r="E3" s="26">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F3" s="27">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="25">
+        <f t="shared" si="0"/>
+        <v>10.690121786197547</v>
+      </c>
+      <c r="E4" s="26">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F4" s="27">
+        <v>3.6950000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="25">
+        <f t="shared" si="0"/>
+        <v>14.371584699453543</v>
+      </c>
+      <c r="E5" s="26">
         <v>4.1859999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F5" s="27">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="25">
+        <f t="shared" si="0"/>
+        <v>14.710743801652892</v>
+      </c>
+      <c r="E6" s="26">
         <v>4.1639999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F6" s="27">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="25">
+        <f t="shared" si="0"/>
+        <v>10.999999999999988</v>
+      </c>
+      <c r="E7" s="26">
         <v>3.996</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F7" s="27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="25">
+        <f t="shared" si="0"/>
+        <v>6.0845070422535175</v>
+      </c>
+      <c r="E8" s="26">
         <v>3.766</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F8" s="27">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14285714285713347</v>
+      </c>
+      <c r="E9" s="26">
         <v>3.5049999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F9" s="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="25">
+        <f t="shared" si="0"/>
+        <v>-8.235294117647074</v>
+      </c>
+      <c r="E10" s="26">
         <v>3.2759999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F10" s="27">
+        <v>3.5700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="25">
+        <f t="shared" si="0"/>
+        <v>-13.049450549450547</v>
+      </c>
+      <c r="E11" s="26">
         <v>3.165</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F11" s="27">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="25">
+        <f t="shared" si="0"/>
+        <v>-13.387755102040821</v>
+      </c>
+      <c r="E12" s="26">
         <v>3.1829999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F12" s="27">
+        <v>3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="25">
+        <f t="shared" si="0"/>
+        <v>-11.185983827493262</v>
+      </c>
+      <c r="E13" s="26">
         <v>3.2949999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F13" s="27">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="25">
+        <f t="shared" si="0"/>
+        <v>-8.0158730158730211</v>
+      </c>
+      <c r="E14" s="26">
         <v>3.4769999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F14" s="27">
+        <v>3.7800000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="25">
+        <f t="shared" si="0"/>
+        <v>-3.6883116883116851</v>
+      </c>
+      <c r="E15" s="26">
         <v>3.7080000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F15" s="27">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.86956521739129933</v>
+      </c>
+      <c r="E16" s="28">
         <v>3.944</v>
+      </c>
+      <c r="F16" s="29">
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>
@@ -3611,10 +3971,10 @@
       <c r="H2" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="13" t="s">
         <v>45</v>
       </c>
@@ -3626,11 +3986,11 @@
       <c r="I4" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="14"/>
@@ -3641,126 +4001,126 @@
       <c r="I6" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="G8" s="21" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="G10" s="6">
         <v>2</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="G11" s="6">
         <v>3</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="G12" s="6">
         <v>4</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="G13" s="6">
         <v>5</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -3772,11 +4132,11 @@
       <c r="H14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -3788,11 +4148,11 @@
       <c r="H15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -3804,11 +4164,11 @@
       <c r="H16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -3947,13 +4307,6 @@
     <protectedRange sqref="C4 C6 A9:D60 G9:J60" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="B9:E9"/>
@@ -3967,6 +4320,13 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{C7B06802-F6F0-4C26-B6E5-E22804DC63F0}"/>
@@ -3977,9 +4337,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4194,27 +4557,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB7878B-2AF9-428A-AD12-C062BCB0CB27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FC7028-6DC9-417C-913F-62F1527A619C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="10acc950-e060-4158-99a6-ab8def1cab2e"/>
-    <ds:schemaRef ds:uri="4acd28c5-ffac-4bbd-8aba-529c380f1a98"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4239,9 +4590,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FC7028-6DC9-417C-913F-62F1527A619C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB7878B-2AF9-428A-AD12-C062BCB0CB27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="10acc950-e060-4158-99a6-ab8def1cab2e"/>
+    <ds:schemaRef ds:uri="4acd28c5-ffac-4bbd-8aba-529c380f1a98"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>